--- a/target/test-classes/TestCases.xlsx
+++ b/target/test-classes/TestCases.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anshulsonpure\eclipse-workspace\KeyWordDrivenFramework\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anshulsonpure\eclipse-workspace\TestCaseDrivenFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A3045F-E0C7-4669-897F-33AB951FE547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE635AA5-5EE4-4231-8F9D-5A8674719556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Data" sheetId="2" r:id="rId2"/>
+    <sheet name="LoginApp" sheetId="2" r:id="rId2"/>
+    <sheet name="ProductPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>TestNo.</t>
   </si>
@@ -37,13 +38,7 @@
     <t>Test Steps</t>
   </si>
   <si>
-    <t>Execution</t>
-  </si>
-  <si>
     <t>Login to Application</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>1. Lauch the Application
@@ -65,6 +60,48 @@
   </si>
   <si>
     <t>secret_sauce</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Add Product</t>
+  </si>
+  <si>
+    <t>1. User is in Product Page
+2. User select Sauce Labs Backpack and add to cart
+3.  User click on cart
+4. User Validate Price
+5. User Click on checkout
+6. User Enter Checkout Information
+7. User Click on Continue
+8. User Validate Total Price
+9. User Click on Finish
+10. User click on logout</t>
+  </si>
+  <si>
+    <t>Product Page</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>Sachin</t>
+  </si>
+  <si>
+    <t>Jaiswal</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>RunMode</t>
   </si>
 </sst>
 </file>
@@ -94,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -117,16 +154,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,40 +462,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="21.7265625" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -453,31 +525,74 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B20" sqref="B20:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808710A7-0B5E-4037-983E-713C53675F5E}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>431298</v>
       </c>
     </row>
   </sheetData>
